--- a/static/设备验收信息表格.xlsx
+++ b/static/设备验收信息表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eckoqzhang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B33445-6C39-4458-90CB-21B32E050361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285DF602-1A36-40AA-82FB-AB6CDC9C2CD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="7620" xr2:uid="{D2D0F6B4-DD6C-441F-830C-C27CC61158CD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>MAC地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,7 +76,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁盘空间(GB)</t>
+    <t>母机MAC地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘空间(MB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,15 +160,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,340 +487,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A287253-4753-4D04-A490-5DD62FF38B9C}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
